--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="193">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Copia dell'atto di assenso del figlio</t>
+    <t>Copia dell'atto di assenso/dichiarazione del figlio</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,=,2</t>
@@ -449,81 +449,87 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+    <t>Atto Consenso Madre</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.atto</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.altroUfficiale</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Sentenza di consenso</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.sentenzaTribunale</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
+  </si>
+  <si>
+    <t>Assenso figlio</t>
+  </si>
+  <si>
+    <t>Assenso reso dinanzi a:</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>assensoReso</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
   </si>
   <si>
-    <t>Atto Consenso Madre</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.atto</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.altroUfficiale</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Sentenza di consenso</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.sentenzaTribunale</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
-  </si>
-  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -561,9 +567,6 @@
   </si>
   <si>
     <t>Figlio premorto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -646,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -655,7 +658,7 @@
     <col min="1" max="1" width="20.51171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -4441,7 +4444,7 @@
         <v>131</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>146</v>
@@ -4542,7 +4545,7 @@
         <v>138</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>147</v>
@@ -4565,7 +4568,7 @@
         <v>140</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>147</v>
@@ -4588,7 +4591,7 @@
         <v>142</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>147</v>
@@ -4602,7 +4605,7 @@
         <v>143</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>146</v>
@@ -4619,10 +4622,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4631,1415 +4634,1139 @@
         <v>149</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C180" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
         <v>30</v>
       </c>
     </row>
